--- a/XSTZ_Test_framework/data/xstz.xlsx
+++ b/XSTZ_Test_framework/data/xstz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT库版本库管理\automation\XSTZ_Test_framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E359A-20FC-4F48-954C-A8D7E8CF868F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20D9EA8-F232-408E-A204-CB3BA2FFE54D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{8C08D303-E506-4D73-8CF6-7FEB7EC741A1}"/>
   </bookViews>
@@ -43,23 +43,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//input[@id='btnPay']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>css selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#bt-submit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>css selector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locator</t>
+    <t>//input[@id='btnPay'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -466,24 +466,24 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
